--- a/biology/Zoologie/Alvinellidae/Alvinellidae.xlsx
+++ b/biology/Zoologie/Alvinellidae/Alvinellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alvinellidae sont une famille de vers annélides polychètes sédentaires de l'ordre des Terebellida. Les annélides sont des animaux protostomiens métamérisés vermiformes.
-Ces vers sont endémiques des cheminées hydrothermales[2].
+Ces vers sont endémiques des cheminées hydrothermales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 février 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 février 2016) :
 genre Alvinella Desbruyères &amp; Laubier, 1980 -- 2 espèces
 genre Paralvinella Desbruyères &amp; Laubier, 1982 -- 9 espèces
 			Tubes d'Alvinella pompejana
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Desbruyères &amp; Laubier, 1986 : Les Alvinellidae, une famille nouvelle d'annélides polychètes inféodées aux sources hydrothermales sous-marines : systématique, biologie et écologie. Revue canadienne de zoologie, vol. 64, n. 10, pp. 2227-2245 (introduction).</t>
         </is>
